--- a/biology/Zoologie/Hyporthodus_niveatus/Hyporthodus_niveatus.xlsx
+++ b/biology/Zoologie/Hyporthodus_niveatus/Hyporthodus_niveatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epinephelus niveatus · Mérou neige
-Hyporthodus niveatus[2], communément appelé Mérou neige[3], est une espèce de poissons marins de la famille des Serranidae.
+Hyporthodus niveatus, communément appelé Mérou neige, est une espèce de poissons marins de la famille des Serranidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyporthodus niveatus se rencontre le long des côtes allant du Canada jusqu'au golfe du Mexique et les Caraïbes à une profondeur comprise entre 30 et 525 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyporthodus niveatus se rencontre le long des côtes allant du Canada jusqu'au golfe du Mexique et les Caraïbes à une profondeur comprise entre 30 et 525 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Hyporthodus niveatus est de 122 cm[3], mais sa taille habituelle est d'environ 60 cm[3]. Son poids maximal observé est de 30 kg et sa longévité maximale de 27 ans[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Hyporthodus niveatus est de 122 cm, mais sa taille habituelle est d'environ 60 cm. Son poids maximal observé est de 30 kg et sa longévité maximale de 27 ans.
 </t>
         </is>
       </c>
